--- a/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SJI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>534100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>463200</v>
+      </c>
+      <c r="F8" s="3">
         <v>261200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>266900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>637300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>589600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>302500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>227300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>521900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>345700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>227100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>244400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>425800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>330000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>219100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>348400</v>
+      </c>
+      <c r="F9" s="3">
         <v>253600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>230800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>474700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>479300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>314700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>209700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>336900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>225200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>256000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>222800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>331700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>233600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>114800</v>
+      </c>
+      <c r="F10" s="3">
         <v>7600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>36100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>162600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>110300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-12200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>17600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>185000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>120500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-28900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>21600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>94100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>96400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,40 +1002,46 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-7900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>100100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>91300</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1013,52 +1052,64 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F15" s="3">
         <v>24900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>24100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>23700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>24900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>22400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>24800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>24700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>26900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>24900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>24600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>24300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>24300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>368400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>387300</v>
+      </c>
+      <c r="F17" s="3">
         <v>280200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>258100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>502700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>499600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>341100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>335900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>364100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>344800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>282400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>248900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>358100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>259600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>165800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>75900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-19000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>8800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>134600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>90000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-38600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-108600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>157800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-55300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>67700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>70400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>79800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-17600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>9300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>160800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>89900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-39600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-107400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>185300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-52600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>97700</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F22" s="3">
         <v>28900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>28400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>28700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>30200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>26500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>19600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>14000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>15700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>10600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>11000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>16700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>6700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-47300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-19500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>108500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>57000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-63700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-127100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>146700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-63600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-13200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>56600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>64900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-10900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>24900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>12800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-16600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>36400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-24800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-5500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>21900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>19300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>37600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-36300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-14900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>83500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>44300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-47100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-95100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>110200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-38800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>34700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>45700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-34700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>85700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>46000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-45600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-93800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>111300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-37500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>37700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>46000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1592,34 +1713,40 @@
         <v>-100</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>13500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-34800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>85600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>45900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-45700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-93800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>111200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-37600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>37700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>45900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-34800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>85600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>45900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-45700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-93800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>111200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-37600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>37700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>45900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F41" s="3">
         <v>4600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>12200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>30000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>22400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>15000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>18300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,316 +2234,364 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>242100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>239200</v>
+      </c>
+      <c r="F43" s="3">
         <v>162000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>205600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>299700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>320600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>203800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>185500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>232600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>193300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>140400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>171700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>224000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>213500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>55300</v>
+      </c>
+      <c r="F44" s="3">
         <v>66200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>51200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>28400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>62200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>88900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>48300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>37700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>52800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>62100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>54500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>42100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>60600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>177600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>351600</v>
+      </c>
+      <c r="F45" s="3">
         <v>172300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>160000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>182300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>250400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>441200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2168300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>137000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>185100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>107300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>120200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>155400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>180900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>462300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>652500</v>
+      </c>
+      <c r="F46" s="3">
         <v>405100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>429000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>520700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>663200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>737300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2424500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>413500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>439000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>323500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>356500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>436600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>473300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>130800</v>
+      </c>
+      <c r="F47" s="3">
         <v>128200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>124400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>121300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>117400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>116100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>113700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>107900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>104300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>115000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>111500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>100000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>96500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4152900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4073500</v>
+      </c>
+      <c r="F48" s="3">
         <v>4028900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3941600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3726100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3653500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3530100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2361300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2731700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2700200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2698100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2707800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2662700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2623800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2547100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>702100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>702100</v>
+      </c>
+      <c r="F49" s="3">
         <v>705700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>703900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>734600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>734600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>759800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>15600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>16100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>19800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>20100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>20400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>20700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>841100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>806400</v>
+      </c>
+      <c r="F52" s="3">
         <v>862100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>829400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>760700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>787900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>771200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>594300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>621100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>605500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>583600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>546000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>527600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>516300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>519800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6294500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6365300</v>
+      </c>
+      <c r="F54" s="3">
         <v>6130100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6028300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5863400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5956600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5914500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5509500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3890100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3865100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3740100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3741900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3747400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3730600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3557100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>232200</v>
+      </c>
+      <c r="F57" s="3">
         <v>245800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>288900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>332900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>410500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>383500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>262100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>259700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>284900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>208000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>246700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>272700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>243700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1167700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1316600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1151200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1158900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>689000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1004400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1904100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1705200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>511900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>410200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>291000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>312200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>237000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>528000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>462100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>210300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>183000</v>
+      </c>
+      <c r="F59" s="3">
         <v>210700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>198300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>183100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>166000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>183600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>147500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>152600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>188000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>185100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>175200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>171300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>180900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1565700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1731900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1607800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1646100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1205100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1580800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2471200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2114800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>924200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>883100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>684200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>734100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>681000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>952600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>812400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2067100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2070100</v>
+      </c>
+      <c r="F61" s="3">
         <v>2022800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1798600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2117900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2106900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1281000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1403800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>974700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1123000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1180300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1066700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1079300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>808000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>808700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1164400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1139600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1082700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1107200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1025900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1001900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>927500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>687200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>709700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>666600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>654200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>661800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>679100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>680700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>668600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4797200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4941600</v>
+      </c>
+      <c r="F66" s="3">
         <v>4713300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4551800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4348800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4689600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4679700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4205800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2608600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2672700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2518700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2462600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2439500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2441300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2289700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>313200</v>
+      </c>
+      <c r="F72" s="3">
         <v>301000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>362400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>402300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>343300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>321900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>391500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>509300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>420400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>438600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>497900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>527100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>510600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>486300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1497300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1423800</v>
+      </c>
+      <c r="F76" s="3">
         <v>1416800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1476500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1514600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1267000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1234800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1303700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1281500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1192400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1221400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1279200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1307900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1289200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1267400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-34800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>85600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>45900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-45700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-93800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>111200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-37600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>37700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>45900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-94700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>212300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-29800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>20600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>57600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>95200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>63200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>44100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>79500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>66200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-101300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-134700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-121900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-140400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-74800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-67200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-58800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-67400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-63600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-74800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-67300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-179600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-139100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-150200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-105200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-113500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-108800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>171800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1828700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-70300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-61500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-57800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-66500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-90200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-72800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-66100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-64000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-26600</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-48500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-23900</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-44000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-21700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-42600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-152200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>158000</v>
+      </c>
+      <c r="F100" s="3">
         <v>189600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>122800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-117100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-123600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>48000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1763100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-50300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>15000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>70400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>40100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-20800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>11600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-10300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>13200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-13700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>18400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1760100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1750400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-16700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>20400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>7400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-5900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>11300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SJI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E8" s="3">
         <v>534100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>463200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>261200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>266900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>637300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>589600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>302500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>227300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>521900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>345700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>227100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>244400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>425800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>330000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>219100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>209700</v>
+      </c>
+      <c r="E9" s="3">
         <v>338000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>348400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>253600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>230800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>474700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>479300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>314700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>209700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>336900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>225200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>256000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>222800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>331700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>233600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E10" s="3">
         <v>196100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>114800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>162600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>110300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-12200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>185000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>120500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-28900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>94100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>96400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,43 +1025,46 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>9600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-7900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>91300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1058,58 +1078,64 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E15" s="3">
         <v>26500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>27000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>23700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>24900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>26900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24600</v>
-      </c>
-      <c r="P15" s="3">
-        <v>24300</v>
       </c>
       <c r="Q15" s="3">
         <v>24300</v>
       </c>
       <c r="R15" s="3">
+        <v>24300</v>
+      </c>
+      <c r="S15" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>239800</v>
+      </c>
+      <c r="E17" s="3">
         <v>368400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>387300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>280200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>258100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>502700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>499600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>341100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>335900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>364100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>344800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>282400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>248900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>358100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>259600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E18" s="3">
         <v>165800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>75900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>134600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>90000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-108600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>157800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-55300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>67700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>70400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2300</v>
       </c>
       <c r="O20" s="3">
         <v>2300</v>
       </c>
       <c r="P20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E21" s="3">
         <v>191100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>79800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>160800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>89900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-39600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-107400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>185300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-52600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>97700</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E22" s="3">
         <v>32500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>30200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>132100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>49300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-47300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>108500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>57000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-63700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-127100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>146700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-63600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>56600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>64900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>33400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-16600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-32000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-24800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>98700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>83500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>44300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-47100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-95100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>110200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-38800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>101100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>39500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>85700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>46000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-45600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-93800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>111300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-37500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>37700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1719,20 +1780,20 @@
         <v>-100</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>13500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1740,13 +1801,16 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-2300</v>
       </c>
       <c r="O32" s="3">
         <v>-2300</v>
       </c>
       <c r="P32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>101000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>39500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>85600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>45900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-45700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-93800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>111200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-37600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>37700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>101000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>39500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>85600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>45900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-45700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-93800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>111200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-37600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>37700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E41" s="3">
         <v>10300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,308 +2330,329 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>203700</v>
+      </c>
+      <c r="E43" s="3">
         <v>242100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>239200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>162000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>205600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>299700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>320600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>203800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>185500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>232600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>193300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>140400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>171700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>224000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>213500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E44" s="3">
         <v>32200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>55300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>66200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>51200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>28400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>62200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>88900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>37700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>52800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>62100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>54500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>42100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>60600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>170200</v>
+      </c>
+      <c r="E45" s="3">
         <v>177600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>351600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>172300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>160000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>182300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>250400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>441200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2168300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>137000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>185100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>107300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>120200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>155400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>180900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>422800</v>
+      </c>
+      <c r="E46" s="3">
         <v>462300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>652500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>405100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>429000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>520700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>663200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>737300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2424500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>413500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>439000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>323500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>356500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>436600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>473300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>138700</v>
+      </c>
+      <c r="E47" s="3">
         <v>136100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>130800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>128200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>124400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>121300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>117400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>116100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>113700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>107900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>104300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>115000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>111500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>96500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4173800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4152900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4073500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4028900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3941600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3726100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3653500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3530100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2361300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2731700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2700200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2698100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2707800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2662700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2623800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2547100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2552,46 +2663,49 @@
         <v>702100</v>
       </c>
       <c r="F49" s="3">
+        <v>702100</v>
+      </c>
+      <c r="G49" s="3">
         <v>705700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>703900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>734600</v>
       </c>
       <c r="I49" s="3">
         <v>734600</v>
       </c>
       <c r="J49" s="3">
+        <v>734600</v>
+      </c>
+      <c r="K49" s="3">
         <v>759800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>779600</v>
+      </c>
+      <c r="E52" s="3">
         <v>841100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>806400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>862100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>829400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>760700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>787900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>771200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>594300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>621100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>605500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>583600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>546000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>527600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>516300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>519800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6217000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6294500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6365300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6130100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6028300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5863400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5956600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5914500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5509500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3890100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3865100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3740100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3741900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3747400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3730600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3557100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E57" s="3">
         <v>187600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>232200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>245800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>288900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>332900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>410500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>383500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>262100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>259700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>284900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>208000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>246700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>272700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>243700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>570700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1167700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1316600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1151200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1158900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>689000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1004400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1904100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1705200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>511900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>410200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>291000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>312200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>237000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>528000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>462100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>195100</v>
+      </c>
+      <c r="E59" s="3">
         <v>210300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>183000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>210700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>198300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>183100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>166000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>183600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>147500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>152600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>188000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>185100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>175200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>171300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>180900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>926200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1565700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1731900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1607800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1646100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1205100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1580800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2471200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2114800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>924200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>883100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>684200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>734100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>681000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>952600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>812400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2566400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2067100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2070100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2022800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1798600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2117900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2106900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1281000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1403800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>974700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1123000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1180300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1066700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1079300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>808000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>808700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1058000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1164400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1139600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1082700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1107200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1025900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1001900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>927500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>687200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>709700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>666600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>654200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>661800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>679100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>680700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>668600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4550600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4797200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4941600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4713300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4551800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4348800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4689600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4679700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4205800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2608600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2672700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2518700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2462600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2439500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2441300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2289700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>357100</v>
+      </c>
+      <c r="E72" s="3">
         <v>387000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>313200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>301000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>362400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>402300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>343300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>321900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>391500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>509300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>420400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>438600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>497900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>527100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>510600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>486300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1666300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1497300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1423800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1416800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1476500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1514600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1267000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1234800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1303700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1281500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1192400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1221400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1279200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1307900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1289200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1267400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>101000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>39500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>85600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>45900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-45700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-93800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>111200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-37600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>37700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E89" s="3">
         <v>165900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-94700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>212300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-29800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>95200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>63200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>44100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>79500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>66200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-113700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-146400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-101300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-134700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-121900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-140400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-74800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-67400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-63600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-74800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-67300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-179600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-139100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-125100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-150200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-105200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-113500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-108800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>171800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1828700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-61500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-66500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-90200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-72800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-66100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-64000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,49 +4858,52 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-53800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-26600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-48500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-23900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-44000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-42600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-152200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>158000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>189600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>122800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-117100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-123600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>48000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1763100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-50300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>70400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>40100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>11600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E102" s="3">
         <v>3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1760100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1750400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>SJI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>261500</v>
+      </c>
+      <c r="E8" s="3">
         <v>260000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>534100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>463200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>261200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>266900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>637300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>589600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>302500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>227300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>521900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>345700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>227100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>244400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>425800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>330000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>219100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>239300</v>
+      </c>
+      <c r="E9" s="3">
         <v>209700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>338000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>348400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>253600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>230800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>474700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>479300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>314700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>209700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>336900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>225200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>256000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>222800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>331700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>233600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E10" s="3">
         <v>50300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>196100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>114800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>162600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>110300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-12200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>185000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>120500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-28900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>94100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>96400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,46 +1045,49 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>9600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-7900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>91300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E15" s="3">
         <v>27400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>26500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>27000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>24100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>26900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24600</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>24300</v>
       </c>
       <c r="R15" s="3">
         <v>24300</v>
       </c>
       <c r="S15" s="3">
+        <v>24300</v>
+      </c>
+      <c r="T15" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E17" s="3">
         <v>239800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>368400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>387300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>280200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>258100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>502700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>499600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>341100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>335900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>364100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>344800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>282400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>248900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>358100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>259600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E18" s="3">
         <v>20200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>165800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>75900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>134600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>90000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-38600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-108600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>157800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-55300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>67700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>70400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>2300</v>
       </c>
       <c r="P20" s="3">
         <v>2300</v>
       </c>
       <c r="Q20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R20" s="3">
         <v>5700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E21" s="3">
         <v>24800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>191100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>79800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>160800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>89900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-39600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-107400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>185300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-52600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>97700</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E22" s="3">
         <v>28600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>30200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>132100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>49300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-47300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>108500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>57000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-63700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-127100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>146700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-63600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>56600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>64900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>33400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-10900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-32000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-24800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>98700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>83500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>44300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-47100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-95100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>110200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-38800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>45700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>101100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>39500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>85700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>46000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-93800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>111300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-37500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>37700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1783,20 +1844,20 @@
         <v>-100</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>13500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -1804,13 +1865,16 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-2300</v>
       </c>
       <c r="P32" s="3">
         <v>-2300</v>
       </c>
       <c r="Q32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R32" s="3">
         <v>-5700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>101000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>39500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>85600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-93800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>111200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-37600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>37700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>45900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>101000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>39500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>85600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-93800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>111200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-37600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>37700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>45900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E41" s="3">
         <v>7300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,331 +2423,352 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E43" s="3">
         <v>203700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>242100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>239200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>162000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>205600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>299700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>320600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>203800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>185500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>232600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>193300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>140400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>171700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>224000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>213500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E44" s="3">
         <v>41600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>32200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>55300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>66200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>51200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>62200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>88900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>37700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>52800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>54500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>42100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>60600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>154700</v>
+      </c>
+      <c r="E45" s="3">
         <v>170200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>177600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>351600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>172300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>160000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>182300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>250400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>441200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2168300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>137000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>185100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>107300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>120200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>155400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>180900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>354800</v>
+      </c>
+      <c r="E46" s="3">
         <v>422800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>462300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>652500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>405100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>429000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>520700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>663200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>737300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2424500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>413500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>439000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>323500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>356500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>436600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>473300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E47" s="3">
         <v>138700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>136100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>130800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>128200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>124400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>121300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>117400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>116100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>113700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>107900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>104300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>115000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>111500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>100000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>96500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4317500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4173800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4152900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4073500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4028900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3941600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3726100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3653500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3530100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2361300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2731700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2700200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2698100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2707800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2662700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2623800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2547100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>702100</v>
+        <v>707000</v>
       </c>
       <c r="E49" s="3">
         <v>702100</v>
@@ -2666,46 +2777,49 @@
         <v>702100</v>
       </c>
       <c r="G49" s="3">
+        <v>702100</v>
+      </c>
+      <c r="H49" s="3">
         <v>705700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>703900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>734600</v>
       </c>
       <c r="J49" s="3">
         <v>734600</v>
       </c>
       <c r="K49" s="3">
+        <v>734600</v>
+      </c>
+      <c r="L49" s="3">
         <v>759800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>786100</v>
+      </c>
+      <c r="E52" s="3">
         <v>779600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>841100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>806400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>862100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>829400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>760700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>787900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>771200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>594300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>621100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>605500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>583600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>546000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>527600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>516300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>519800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6308900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6217000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6294500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6365300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6130100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6028300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5863400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5956600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5914500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5509500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3890100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3865100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3740100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3741900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3747400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3730600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3557100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>162800</v>
+      </c>
+      <c r="E57" s="3">
         <v>160400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>187600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>232200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>245800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>288900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>332900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>410500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>383500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>262100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>259700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>284900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>208000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>246700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>272700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>243700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>739800</v>
+      </c>
+      <c r="E58" s="3">
         <v>570700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1167700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1316600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1151200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1158900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>689000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1004400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1904100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1705200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>511900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>410200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>291000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>312200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>237000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>528000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>462100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>201100</v>
+      </c>
+      <c r="E59" s="3">
         <v>195100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>210300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>183000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>210700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>198300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>183100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>166000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>183600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>147500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>152600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>188000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>185100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>175200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>171300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>180900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1103700</v>
+      </c>
+      <c r="E60" s="3">
         <v>926200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1565700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1731900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1607800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1646100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1205100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1580800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2471200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2114800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>924200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>883100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>684200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>734100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>681000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>952600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>812400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2531600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2566400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2067100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2070100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2022800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1798600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2117900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2106900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1281000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1403800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>974700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1123000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1180300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1066700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1079300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>808000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>808700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1041600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1058000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1164400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1139600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1082700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1107200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1025900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1001900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>927500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>687200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>709700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>666600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>654200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>661800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>679100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>680700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>668600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4681200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4550600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4797200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4941600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4713300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4551800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4348800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4689600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4679700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4205800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2608600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2672700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2518700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2462600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2439500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2441300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2289700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E72" s="3">
         <v>357100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>387000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>313200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>301000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>362400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>402300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>343300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>321900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>391500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>509300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>420400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>438600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>497900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>527100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>510600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>486300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1627700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1666300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1497300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1423800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1416800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1476500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1514600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1267000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1234800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1303700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1281500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1192400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1221400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1279200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1307900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1289200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1267400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>101000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>39500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>85600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-93800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>111200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-37600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>37700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>45900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E89" s="3">
         <v>40400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>165900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-94700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>212300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-29800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>95200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>63200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>44100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>79500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>66200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-121000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-113700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-146400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-101300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-134700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-121900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-140400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-74800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-67400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-63600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-74800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-67300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-179600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-139100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-162200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-125100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-150200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-105200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-113500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-108800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>171800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1828700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-70300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-61500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-57800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-66500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-90200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-72800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-66100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-64000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-27300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-53800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-26600</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-48500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-23900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-44000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-42600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E100" s="3">
         <v>71300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-152200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>158000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>189600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>122800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-117100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-123600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1763100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-50300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>70400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>40100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1760100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1750400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>SJI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>485800</v>
+      </c>
+      <c r="E8" s="3">
         <v>261500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>260000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>534100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>463200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>261200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>266900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>637300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>589600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>302500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>227300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>521900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>345700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>227100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>244400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>425800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>330000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>219100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E9" s="3">
         <v>239300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>209700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>338000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>348400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>253600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>230800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>474700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>479300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>314700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>209700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>336900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>225200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>256000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>222800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>331700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>233600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E10" s="3">
         <v>22200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>50300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>196100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>114800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>162600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>110300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-12200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>185000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>120500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>94100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>96400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,49 +1064,52 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>-2600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>9600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-7900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>91300</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1104,64 +1123,70 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E15" s="3">
         <v>28000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>27400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>26500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>27000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>24900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>24100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>23700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>26900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24600</v>
-      </c>
-      <c r="R15" s="3">
-        <v>24300</v>
       </c>
       <c r="S15" s="3">
         <v>24300</v>
       </c>
       <c r="T15" s="3">
+        <v>24300</v>
+      </c>
+      <c r="U15" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E17" s="3">
         <v>270000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>239800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>368400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>387300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>280200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>258100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>502700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>499600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>341100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>335900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>364100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>344800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>282400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>248900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>358100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>259600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>165800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>75900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>134600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>90000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-38600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-108600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>157800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>67700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>70400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>2300</v>
       </c>
       <c r="Q20" s="3">
         <v>2300</v>
       </c>
       <c r="R20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S20" s="3">
         <v>5700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>191100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>79800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>160800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>89900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-39600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-107400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>185300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>97700</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E22" s="3">
         <v>27800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>132100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>49300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-47300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>108500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-63700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-127100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>146700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-63600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>56600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>64900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-19500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>33400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-10900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-32000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>98700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>83500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-47100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-95100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>110200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>45700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>101100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>39500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>85700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>46000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-45600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-93800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>111300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>37700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>46000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1847,20 +1907,20 @@
         <v>-100</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>13500</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -1868,13 +1928,16 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q32" s="3">
         <v>-2300</v>
       </c>
       <c r="R32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S32" s="3">
         <v>-5700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>101000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>85600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-45700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-93800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>111200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>37700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>45900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>101000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>85600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-45700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-93800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>111200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>37700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>45900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,344 +2515,365 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E43" s="3">
         <v>137400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>203700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>242100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>239200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>162000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>205600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>299700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>320600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>203800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>185500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>232600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>193300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>140400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>171700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>224000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>213500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E44" s="3">
         <v>52700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>41600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>32200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>55300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>66200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>51200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>62200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>88900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>48300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>37700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>52800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>62100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>54500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>42100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>60600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E45" s="3">
         <v>154700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>170200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>177600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>351600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>172300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>160000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>182300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>250400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>441200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2168300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>137000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>185100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>107300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>120200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>155400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>180900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>506800</v>
+      </c>
+      <c r="E46" s="3">
         <v>354800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>422800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>462300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>652500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>405100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>429000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>520700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>663200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>737300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2424500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>413500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>439000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>323500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>356500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>436600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>473300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E47" s="3">
         <v>143500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>138700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>136100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>130800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>128200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>124400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>121300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>117400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>116100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>113700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>107900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>104300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>115000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>111500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>100000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>96500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4464200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4317500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4173800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4152900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4073500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4028900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3941600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3726100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3653500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3530100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2361300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2731700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2700200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2698100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2707800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2662700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2623800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2547100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,7 +2881,7 @@
         <v>707000</v>
       </c>
       <c r="E49" s="3">
-        <v>702100</v>
+        <v>707000</v>
       </c>
       <c r="F49" s="3">
         <v>702100</v>
@@ -2780,46 +2890,49 @@
         <v>702100</v>
       </c>
       <c r="H49" s="3">
+        <v>702100</v>
+      </c>
+      <c r="I49" s="3">
         <v>705700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>703900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>734600</v>
       </c>
       <c r="K49" s="3">
         <v>734600</v>
       </c>
       <c r="L49" s="3">
+        <v>734600</v>
+      </c>
+      <c r="M49" s="3">
         <v>759800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>832400</v>
+      </c>
+      <c r="E52" s="3">
         <v>786100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>779600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>841100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>806400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>862100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>829400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>760700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>787900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>771200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>594300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>621100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>605500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>583600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>546000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>527600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>516300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>519800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6689100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6308900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6217000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6294500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6365300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6130100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6028300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5863400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5956600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5914500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5509500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3890100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3865100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3740100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3741900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3747400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3730600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3557100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>256600</v>
+      </c>
+      <c r="E57" s="3">
         <v>162800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>160400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>187600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>232200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>245800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>288900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>332900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>410500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>383500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>262100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>259700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>284900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>208000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>246700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>272700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>243700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>739200</v>
+      </c>
+      <c r="E58" s="3">
         <v>739800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>570700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1167700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1316600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1151200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1158900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>689000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1004400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1904100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1705200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>511900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>410200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>291000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>312200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>237000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>528000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>462100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E59" s="3">
         <v>201100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>195100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>210300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>183000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>210700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>198300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>183100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>166000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>183600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>147500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>152600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>188000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>185100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>175200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>171300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>180900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1163600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1103700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>926200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1565700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1731900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1607800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1646100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1205100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1580800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2471200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2114800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>924200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>883100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>684200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>734100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>681000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>952600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>812400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2776400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2531600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2566400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2067100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2070100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2022800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1798600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2117900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2106900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1281000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1403800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>974700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1123000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1180300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1066700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1079300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>808000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>808700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1082200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1041600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1058000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1164400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1139600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1082700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1107200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1025900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1001900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>927500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>687200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>709700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>666600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>654200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>661800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>679100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>680700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>668600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5028300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4681200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4550600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4797200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4941600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4713300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4551800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4348800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4689600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4679700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4205800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2608600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2672700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2518700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2462600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2439500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2441300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2289700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>355700</v>
+      </c>
+      <c r="E72" s="3">
         <v>317000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>357100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>387000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>313200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>301000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>362400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>402300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>343300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>321900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>391500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>509300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>420400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>438600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>497900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>527100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>510600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>486300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1660900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1627700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1666300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1497300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1423800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1416800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1476500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1514600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1267000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1234800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1303700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1281500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1192400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1221400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1279200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1307900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1289200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1267400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>101000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>85600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-45700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-93800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>111200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>37700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>45900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E89" s="3">
         <v>47900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>165900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-94700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>212300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>57600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>95200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>63200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>44100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>79500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>66200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-141600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-110200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-121000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-113700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-146400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-101300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-134700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-121900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-140400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-74800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-67200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-58800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-67400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-63600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-74800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-67300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-179600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-139100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-210400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-162200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-125100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-150200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-105200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-113500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-108800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>171800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1828700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-70300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-57800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-66500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-90200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-72800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-66100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-64000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-27300</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-53800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-26600</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-48500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-23900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-44000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-42600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>184500</v>
+      </c>
+      <c r="E100" s="3">
         <v>106000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>71300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-152200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>158000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>189600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>122800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-117100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-123600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1763100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-50300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>70400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>40100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>11600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1760100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1750400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>SJI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>674300</v>
+      </c>
+      <c r="E8" s="3">
         <v>485800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>261500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>260000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>534100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>463200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>261200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>266900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>637300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>589600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>302500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>227300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>521900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>345700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>227100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>244400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>425800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>330000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>219100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>441700</v>
+      </c>
+      <c r="E9" s="3">
         <v>344000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>239300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>209700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>338000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>348400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>253600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>230800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>474700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>479300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>314700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>209700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>336900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>225200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>256000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>222800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>331700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>233600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>232600</v>
+      </c>
+      <c r="E10" s="3">
         <v>141800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>50300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>196100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>114800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>162600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>110300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-12200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>185000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>120500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-28900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>94100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>96400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,52 +1084,55 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>9600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-7900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>91300</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1126,67 +1146,73 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E15" s="3">
         <v>36800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>28000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>27400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>26500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>27000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>24900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>26900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24600</v>
-      </c>
-      <c r="S15" s="3">
-        <v>24300</v>
       </c>
       <c r="T15" s="3">
         <v>24300</v>
       </c>
       <c r="U15" s="3">
+        <v>24300</v>
+      </c>
+      <c r="V15" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>477500</v>
+      </c>
+      <c r="E17" s="3">
         <v>381000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>270000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>239800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>368400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>387300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>280200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>258100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>502700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>499600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>341100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>335900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>364100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>344800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>282400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>248900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>358100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>259600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>196800</v>
+      </c>
+      <c r="E18" s="3">
         <v>104800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>165800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>75900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>134600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-38600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-108600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>157800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-55300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>67700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>70400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>2300</v>
       </c>
       <c r="R20" s="3">
         <v>2300</v>
       </c>
       <c r="S20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T20" s="3">
         <v>5700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>232200</v>
+      </c>
+      <c r="E21" s="3">
         <v>114000</v>
       </c>
-      <c r="E21" s="3">
-        <v>-2800</v>
-      </c>
       <c r="F21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G21" s="3">
         <v>24800</v>
       </c>
-      <c r="G21" s="3">
-        <v>191100</v>
-      </c>
       <c r="H21" s="3">
+        <v>192400</v>
+      </c>
+      <c r="I21" s="3">
         <v>79800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>160800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>89900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-39600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-107400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>185300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-52600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>97700</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E22" s="3">
         <v>29600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E23" s="3">
         <v>75500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>132100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>49300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-47300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>108500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-63700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-127100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>146700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-63600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>56600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>64900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E24" s="3">
         <v>8900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-19500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>33400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-10900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-16600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-32000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-24800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E26" s="3">
         <v>66500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>98700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>83500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>44300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-47100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-95100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>110200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-38800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>34700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>45700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E27" s="3">
         <v>69200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>101100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>39500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>85700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>46000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-45600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-93800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>111300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-37500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>37700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>46000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1910,20 +1971,20 @@
         <v>-100</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>13500</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -1931,13 +1992,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-2300</v>
       </c>
       <c r="R32" s="3">
         <v>-2300</v>
       </c>
       <c r="S32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T32" s="3">
         <v>-5700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E33" s="3">
         <v>69100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>101000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>85600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-45700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-93800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>111200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-37600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>37700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>45900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E35" s="3">
         <v>69100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>101000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>85600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-45700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-93800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>111200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-37600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>37700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>45900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E41" s="3">
         <v>34000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>294500</v>
+      </c>
+      <c r="E43" s="3">
         <v>251000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>137400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>203700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>242100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>239200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>162000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>205600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>299700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>320600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>203800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>185500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>232600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>193300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>140400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>171700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>224000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>213500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E44" s="3">
         <v>42000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>52700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>41600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>32200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>55300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>66200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>51200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>62200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>88900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>48300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>37700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>52800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>62100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>54500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>42100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>60600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E45" s="3">
         <v>179800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>154700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>170200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>177600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>351600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>172300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>160000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>182300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>250400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>441200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2168300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>137000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>185100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>107300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>120200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>155400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>180900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>488900</v>
+      </c>
+      <c r="E46" s="3">
         <v>506800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>354800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>422800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>462300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>652500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>405100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>429000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>520700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>663200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>737300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2424500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>413500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>439000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>323500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>356500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>436600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>473300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E47" s="3">
         <v>178800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>143500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>138700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>136100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>130800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>128200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>124400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>121300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>117400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>116100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>113700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>107900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>104300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>115000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>111500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>100000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>96500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4464200</v>
+        <v>4525000</v>
       </c>
       <c r="E48" s="3">
-        <v>4317500</v>
+        <v>4466200</v>
       </c>
       <c r="F48" s="3">
-        <v>4173800</v>
+        <v>4319100</v>
       </c>
       <c r="G48" s="3">
-        <v>4152900</v>
+        <v>4174000</v>
       </c>
       <c r="H48" s="3">
+        <v>4153200</v>
+      </c>
+      <c r="I48" s="3">
         <v>4073500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4028900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3941600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3726100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3653500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3530100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2361300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2731700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2700200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2698100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2707800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2662700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2623800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2547100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>707000</v>
+        <v>722700</v>
       </c>
       <c r="E49" s="3">
-        <v>707000</v>
+        <v>724200</v>
       </c>
       <c r="F49" s="3">
+        <v>721300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>713300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>714600</v>
+      </c>
+      <c r="I49" s="3">
         <v>702100</v>
       </c>
-      <c r="G49" s="3">
-        <v>702100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>702100</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>705700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>703900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>734600</v>
       </c>
       <c r="L49" s="3">
         <v>734600</v>
       </c>
       <c r="M49" s="3">
+        <v>734600</v>
+      </c>
+      <c r="N49" s="3">
         <v>759800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>832400</v>
+        <v>790200</v>
       </c>
       <c r="E52" s="3">
-        <v>786100</v>
+        <v>813200</v>
       </c>
       <c r="F52" s="3">
-        <v>779600</v>
+        <v>770100</v>
       </c>
       <c r="G52" s="3">
-        <v>841100</v>
+        <v>768200</v>
       </c>
       <c r="H52" s="3">
+        <v>828300</v>
+      </c>
+      <c r="I52" s="3">
         <v>806400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>862100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>829400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>760700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>787900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>771200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>594300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>621100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>605500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>583600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>546000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>527600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>516300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>519800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6714500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6689100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6308900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6217000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6294500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6365300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6130100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6028300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5863400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5956600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5914500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5509500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3890100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3865100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3740100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3741900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3747400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3730600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3557100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>218100</v>
+      </c>
+      <c r="E57" s="3">
         <v>256600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>162800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>160400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>187600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>232200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>245800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>288900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>332900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>410500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>383500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>262100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>259700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>284900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>208000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>246700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>272700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>243700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>314100</v>
+      </c>
+      <c r="E58" s="3">
         <v>739200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>739800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>570700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1167700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1316600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1151200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1158900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>689000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1004400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1904100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1705200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>511900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>410200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>291000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>312200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>237000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>528000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>462100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>220500</v>
+      </c>
+      <c r="E59" s="3">
         <v>167800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>201100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>195100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>210300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>183000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>210700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>198300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>183100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>166000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>183600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>147500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>152600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>188000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>185100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>175200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>171300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>180900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>752700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1163600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1103700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>926200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1565700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1731900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1607800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1646100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1205100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1580800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2471200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2114800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>924200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>883100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>684200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>734100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>681000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>952600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>812400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3063400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2776400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2531600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2566400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2067100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2070100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2022800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1798600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2117900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2106900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1281000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1403800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>974700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1123000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1180300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1066700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1079300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>808000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>808700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1155200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1082200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1041600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1058000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1164400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1139600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1082700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1107200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1025900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1001900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>927500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>687200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>709700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>666600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>654200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>661800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>679100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>680700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>668600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4977400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5028300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4681200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4550600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4797200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4941600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4713300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4551800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4348800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4689600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4679700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4205800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2608600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2672700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2518700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2462600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2439500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2441300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2289700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>453800</v>
+      </c>
+      <c r="E72" s="3">
         <v>355700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>317000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>357100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>387000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>313200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>301000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>362400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>402300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>343300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>321900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>391500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>509300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>420400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>438600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>497900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>527100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>510600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>486300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1737100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1660900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1627700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1666300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1497300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1423800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1416800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1476500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1514600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1267000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1234800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1303700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1281500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1192400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1221400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1279200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1307900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1289200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1267400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E81" s="3">
         <v>69100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>101000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>85600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-45700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-93800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>111200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-37600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>37700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>45900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>198500</v>
+      </c>
+      <c r="E89" s="3">
         <v>57400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>47900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>165900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-94700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>212300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-29800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>57600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>95200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>63200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>44100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>79500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>66200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-141600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-110200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-121000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-113700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-146400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-101300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-134700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-121900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-140400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-74800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-67200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-58800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-67400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-63600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-74800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-67300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-179600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-139100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-112300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-210400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-162200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-125100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-150200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-105200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-113500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-108800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>171800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1828700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-70300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-57800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-66500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-90200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-72800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-66100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-64000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-60100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-27300</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-53800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-26600</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-48500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-23900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-42600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E100" s="3">
         <v>184500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>106000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>71300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-152200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>158000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>189600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>122800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-117100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-123600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>48000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1763100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-50300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>70400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>40100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-20800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>11600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E102" s="3">
         <v>31500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1760100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1750400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>SJI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>311800</v>
+      </c>
+      <c r="E8" s="3">
         <v>674300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>485800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>261500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>260000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>534100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>463200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>261200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>266900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>637300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>589600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>302500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>227300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>521900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>345700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>227100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>244400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>425800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>330000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>219100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>264400</v>
+      </c>
+      <c r="E9" s="3">
         <v>441700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>344000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>239300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>209700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>338000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>348400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>253600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>230800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>474700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>479300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>314700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>209700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>336900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>225200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>256000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>222800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>331700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>233600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E10" s="3">
         <v>232600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>141800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>50300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>196100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>114800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>162600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>110300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-12200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>185000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>120500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-28900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>94100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>96400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,55 +1104,58 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>9600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-7900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>91300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1149,70 +1169,76 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E15" s="3">
         <v>31800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>36800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>28000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>27400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>26500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>27000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>26900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>24600</v>
-      </c>
-      <c r="T15" s="3">
-        <v>24300</v>
       </c>
       <c r="U15" s="3">
         <v>24300</v>
       </c>
       <c r="V15" s="3">
+        <v>24300</v>
+      </c>
+      <c r="W15" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300200</v>
+      </c>
+      <c r="E17" s="3">
         <v>477500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>381000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>270000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>239800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>368400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>387300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>280200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>258100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>502700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>499600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>341100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>335900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>364100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>344800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>282400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>248900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>358100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>259600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E18" s="3">
         <v>196800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>104800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>165800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>75900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>134600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-38600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-108600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>157800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-55300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>67700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>70400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>2300</v>
       </c>
       <c r="S20" s="3">
         <v>2300</v>
       </c>
       <c r="T20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U20" s="3">
         <v>5700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E21" s="3">
         <v>232200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>114000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>192400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>79800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>160800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>89900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-39600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-107400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>185300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-52600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>97700</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E22" s="3">
         <v>31500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>29600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>27800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>32500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E23" s="3">
         <v>167400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>75500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>132100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>49300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-47300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>108500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-63700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-127100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>146700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-63600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>56600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>64900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>41800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-19500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>33400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-10900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-16600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-32000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-24800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E26" s="3">
         <v>125700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>66500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>98700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-36300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>83500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>44300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-47100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-95100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>110200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-38800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>34700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>45700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-96700</v>
+      </c>
+      <c r="E27" s="3">
         <v>128700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>69200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>101100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>39500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>85700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-45600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-93800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>111300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-37500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>37700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>46000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1974,20 +2035,20 @@
         <v>-100</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>13500</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -1995,13 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-2300</v>
       </c>
       <c r="S32" s="3">
         <v>-2300</v>
       </c>
       <c r="T32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U32" s="3">
         <v>-5700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="E33" s="3">
         <v>128600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>69100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>101000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>85600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-45700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-93800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>111200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-37600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>37700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>45900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="E35" s="3">
         <v>128600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>69100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>101000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>85600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-45700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-93800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>111200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-37600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>37700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>45900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E41" s="3">
         <v>30400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>18300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E43" s="3">
         <v>294500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>251000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>137400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>203700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>242100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>239200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>162000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>205600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>299700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>320600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>203800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>185500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>232600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>193300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>140400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>171700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>224000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>213500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E44" s="3">
         <v>20500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>42000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>52700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>41600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>32200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>55300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>66200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>51200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>62200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>88900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>48300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>37700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>52800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>62100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>54500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>42100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>60600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E45" s="3">
         <v>143500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>179800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>154700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>170200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>177600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>351600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>172300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>160000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>182300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>250400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>441200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2168300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>137000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>185100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>107300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>120200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>155400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>180900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E46" s="3">
         <v>488900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>506800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>354800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>422800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>462300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>652500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>405100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>429000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>520700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>663200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>737300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2424500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>413500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>439000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>323500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>356500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>436600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>473300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E47" s="3">
         <v>187700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>178800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>143500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>138700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>136100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>130800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>128200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>124400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>121300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>117400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>116100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>113700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>107900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>104300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>115000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>111500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>100000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>96500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4633700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4525000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4466200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4319100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4174000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4153200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4073500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4028900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3941600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3726100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3653500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3530100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2361300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2731700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2700200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2698100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2707800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2662700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2623800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2547100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>723100</v>
+      </c>
+      <c r="E49" s="3">
         <v>722700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>724200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>721300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>713300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>714600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>702100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>705700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>703900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>734600</v>
       </c>
       <c r="M49" s="3">
         <v>734600</v>
       </c>
       <c r="N49" s="3">
+        <v>734600</v>
+      </c>
+      <c r="O49" s="3">
         <v>759800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>19800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>832300</v>
+      </c>
+      <c r="E52" s="3">
         <v>790200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>813200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>770100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>768200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>828300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>806400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>862100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>829400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>760700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>787900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>771200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>594300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>621100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>605500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>583600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>546000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>527600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>516300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>519800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6833100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6714500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6689100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6308900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6217000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6294500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6365300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6130100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6028300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5863400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5956600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5914500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5509500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3890100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3865100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3740100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3741900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3747400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3730600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3557100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>226100</v>
+      </c>
+      <c r="E57" s="3">
         <v>218100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>256600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>162800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>160400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>187600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>232200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>245800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>288900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>332900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>410500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>383500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>262100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>259700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>284900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>208000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>246700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>272700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>243700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>115700</v>
+      </c>
+      <c r="E58" s="3">
         <v>314100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>739200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>739800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>570700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1167700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1316600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1151200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1158900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>689000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1004400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1904100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1705200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>511900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>410200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>291000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>312200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>237000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>528000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>462100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>247800</v>
+      </c>
+      <c r="E59" s="3">
         <v>220500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>167800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>201100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>195100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>210300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>183000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>210700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>198300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>183100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>166000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>183600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>147500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>152600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>188000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>185100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>175200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>171300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>180900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>589600</v>
+      </c>
+      <c r="E60" s="3">
         <v>752700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1163600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1103700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>926200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1565700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1731900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1607800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1646100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1205100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1580800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2471200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2114800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>924200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>883100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>684200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>734100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>681000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>952600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>812400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3177400</v>
+      </c>
+      <c r="E61" s="3">
         <v>3063400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2776400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2531600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2566400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2067100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2070100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2022800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1798600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2117900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2106900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1281000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1403800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>974700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1123000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1180300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1066700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1079300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>808000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>808700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1171300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1155200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1082200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1041600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1058000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1164400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1139600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1082700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1107200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1025900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1001900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>927500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>687200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>709700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>666600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>654200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>661800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>679100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>680700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>668600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4945700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4977400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5028300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4681200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4550600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4797200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4941600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4713300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4551800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4348800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4689600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4679700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4205800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2608600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2672700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2518700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2462600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2439500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2441300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2289700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E72" s="3">
         <v>453800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>355700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>317000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>357100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>387000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>313200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>301000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>362400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>402300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>343300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>321900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>391500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>509300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>420400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>438600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>497900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>527100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>510600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>486300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1887400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1737100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1660900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1627700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1666300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1497300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1423800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1416800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1476500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1514600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1267000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1234800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1303700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1281500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1192400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1221400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1279200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1307900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1289200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1267400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="E81" s="3">
         <v>128600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>69100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>101000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>85600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-45700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-93800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>111200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-37600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>37700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>45900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E89" s="3">
         <v>198500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>57400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>47900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>165900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-94700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>212300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-29800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>57600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>95200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>63200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>44100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>79500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>66200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-126800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-105400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-141600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-110200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-121000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-113700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-146400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-101300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-134700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-121900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-140400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-74800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-67200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-58800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-67400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-63600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-74800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-67300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-179600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-139100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-112300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-210400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-162200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-125100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-150200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-105200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-113500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-108800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>171800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1828700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-70300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-57800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-66500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-90200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-72800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-66100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-64000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,61 +5793,64 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-60100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27300</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-53800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-26600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-48500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-23900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-44000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-42600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-96100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>184500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>106000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>71300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-152200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>158000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>189600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>122800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-117100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-123600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>48000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1763100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-50300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>70400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>40100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-20800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>11600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1760100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1750400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SJI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>365600</v>
+      </c>
+      <c r="E8" s="3">
         <v>311800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>674300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>485800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>261500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>260000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>534100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>463200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>261200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>266900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>637300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>589600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>302500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>227300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>521900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>345700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>227100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>244400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>425800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>330000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>219100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>349600</v>
+      </c>
+      <c r="E9" s="3">
         <v>264400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>441700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>344000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>239300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>209700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>338000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>348400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>253600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>230800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>474700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>479300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>314700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>209700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>336900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>225200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>256000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>222800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>331700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>233600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E10" s="3">
         <v>47400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>232600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>141800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>50300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>196100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>114800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>162600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>110300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-12200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>185000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>120500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-28900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>94100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>96400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,47 +1138,47 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>9600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-7900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>91300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1172,73 +1192,79 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E15" s="3">
         <v>33000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>31800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>36800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>28000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>27400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>26500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>27000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>26900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>24900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>24600</v>
-      </c>
-      <c r="U15" s="3">
-        <v>24300</v>
       </c>
       <c r="V15" s="3">
         <v>24300</v>
       </c>
       <c r="W15" s="3">
+        <v>24300</v>
+      </c>
+      <c r="X15" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>374600</v>
+      </c>
+      <c r="E17" s="3">
         <v>300200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>477500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>381000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>270000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>239800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>368400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>387300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>280200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>258100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>502700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>499600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>341100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>335900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>364100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>344800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>282400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>248900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>358100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>259600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E18" s="3">
         <v>11600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>196800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>104800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>165800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>75900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>134600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-38600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-108600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>157800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-55300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>67700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>70400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
-      </c>
-      <c r="S20" s="3">
-        <v>2300</v>
       </c>
       <c r="T20" s="3">
         <v>2300</v>
       </c>
       <c r="U20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V20" s="3">
         <v>5700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E21" s="3">
         <v>16400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>232200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>114000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>192400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>79800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>160800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>89900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-39600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-107400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>185300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-52600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>97700</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E22" s="3">
         <v>31200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>31500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>29600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>32500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>30200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>26500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>167400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>75500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>132100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>49300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-47300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>108500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>57000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-63700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-127100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>146700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-63600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>56600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>64900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>41800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-19500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>33400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-16600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-24800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-5500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>125700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>66500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>98700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>37600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>83500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>44300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-47100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-95100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>110200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-38800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>34700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>45700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-96700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>128700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>69200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>101100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>85700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-45600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-93800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>111300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-37500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>37700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>46000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2038,20 +2099,20 @@
         <v>-100</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>13500</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2059,13 +2120,16 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-2300</v>
       </c>
       <c r="T32" s="3">
         <v>-2300</v>
       </c>
       <c r="U32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="V32" s="3">
         <v>-5700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-96800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>128600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>69100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>101000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>85600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-45700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-93800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>111200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-37600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>37700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>45900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-96800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>128600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>69100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>101000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>85600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-45700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-93800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>111200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-37600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>37700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>45900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E41" s="3">
         <v>87900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>18300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>233600</v>
+      </c>
+      <c r="E43" s="3">
         <v>218800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>294500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>251000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>137400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>203700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>242100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>239200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>162000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>205600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>299700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>320600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>203800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>185500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>232600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>193300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>140400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>171700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>224000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>213500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E44" s="3">
         <v>41600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>52700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>41600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>32200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>55300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>66200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>51200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>62200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>88900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>48300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>37700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>52800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>62100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>54500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>42100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>60600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>246300</v>
+      </c>
+      <c r="E45" s="3">
         <v>178800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>143500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>179800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>154700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>170200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>177600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>351600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>172300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>160000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>182300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>250400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>441200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2168300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>137000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>185100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>107300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>120200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>155400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>180900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>571700</v>
+      </c>
+      <c r="E46" s="3">
         <v>527000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>488900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>506800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>354800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>422800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>462300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>652500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>405100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>429000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>520700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>663200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>737300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2424500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>413500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>439000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>323500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>356500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>436600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>473300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E47" s="3">
         <v>117000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>187700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>178800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>143500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>138700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>136100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>130800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>128200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>124400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>121300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>117400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>116100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>113700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>107900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>104300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>115000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>111500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>100000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>96500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4741400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4633700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4525000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4466200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4319100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4174000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4153200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4073500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4028900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3941600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3726100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3653500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3530100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2361300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2731700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2700200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2698100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2707800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2662700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2623800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2547100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>721700</v>
+      </c>
+      <c r="E49" s="3">
         <v>723100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>722700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>724200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>721300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>713300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>714600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>702100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>705700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>703900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>734600</v>
       </c>
       <c r="N49" s="3">
         <v>734600</v>
       </c>
       <c r="O49" s="3">
+        <v>734600</v>
+      </c>
+      <c r="P49" s="3">
         <v>759800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>16100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>19800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>851000</v>
+      </c>
+      <c r="E52" s="3">
         <v>832300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>790200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>813200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>770100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>768200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>828300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>806400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>862100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>829400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>760700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>787900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>771200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>594300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>621100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>605500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>583600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>546000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>527600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>516300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>519800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7024000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6833100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6714500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6689100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6308900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6217000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6294500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6365300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6130100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6028300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5863400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5956600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5914500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5509500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3890100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3865100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3740100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3741900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3747400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3730600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3557100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E57" s="3">
         <v>226100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>218100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>256600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>162800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>160400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>187600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>232200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>245800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>288900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>332900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>410500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>383500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>262100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>259700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>284900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>208000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>246700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>272700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>243700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E58" s="3">
         <v>115700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>314100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>739200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>739800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>570700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1167700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1316600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1151200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1158900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>689000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1004400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1904100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1705200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>511900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>410200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>291000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>312200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>237000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>528000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>462100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>309200</v>
+      </c>
+      <c r="E59" s="3">
         <v>247800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>220500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>167800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>201100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>195100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>210300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>183000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>210700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>198300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>183100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>166000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>183600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>147500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>152600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>188000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>185100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>175200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>171300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>180900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>818800</v>
+      </c>
+      <c r="E60" s="3">
         <v>589600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>752700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1163600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1103700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>926200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1565700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1731900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1607800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1646100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1205100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1580800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2471200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2114800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>924200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>883100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>684200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>734100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>681000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>952600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>812400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3195900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3177400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3063400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2776400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2531600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2566400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2067100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2070100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2022800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1798600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2117900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2106900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1281000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1403800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>974700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1123000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1180300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1066700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1079300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>808000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>808700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1173300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1171300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1155200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1082200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1041600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1058000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1164400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1139600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1082700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1107200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1025900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1001900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>927500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>687200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>709700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>666600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>654200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>661800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>679100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>680700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>668600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5195400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4945700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4977400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5028300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4681200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4550600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4797200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4941600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4713300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4551800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4348800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4689600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4679700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4205800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2608600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2672700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2518700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2462600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2439500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2441300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2289700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>262800</v>
+      </c>
+      <c r="E72" s="3">
         <v>323000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>453800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>355700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>317000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>357100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>387000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>313200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>301000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>362400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>402300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>343300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>321900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>391500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>509300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>420400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>438600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>497900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>527100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>510600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>486300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1828600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1887400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1737100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1660900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1627700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1666300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1497300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1423800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1416800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1476500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1514600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1267000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1234800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1303700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1281500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1192400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1221400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1279200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1307900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1289200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1267400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-96800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>128600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>69100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>101000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>85600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-45700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-93800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>111200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-37600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>37700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>45900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E89" s="3">
         <v>43200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>198500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>57400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>47900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>165900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-94700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>212300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-29800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>57600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>95200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>63200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>44100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>79500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>66200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-141400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-126800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-105400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-141600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-110200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-121000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-113700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-146400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-101300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-134700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-121900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-140400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-74800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-67200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-58800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-67400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-63600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-74800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-67300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-179600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-139100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-164900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-157000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-112300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-210400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-162200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-125100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-150200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-105200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-113500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-108800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>171800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1828700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-61500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-57800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-66500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-90200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-72800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-66100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-64000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-34000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-60100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-27300</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-53800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-26600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-48500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-44000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-42600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E100" s="3">
         <v>169900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-96100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>184500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>106000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>71300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-152200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>158000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>189600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>122800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-117100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-123600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>48000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1763100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-50300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>70400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>40100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>11600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="E102" s="3">
         <v>56100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>31500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1760100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1750400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>SJI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>640200</v>
+      </c>
+      <c r="E8" s="3">
         <v>365600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>311800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>674300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>485800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>261500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>260000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>534100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>463200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>261200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>266900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>637300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>589600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>302500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>227300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>521900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>345700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>227100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>244400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>425800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>330000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>219100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E9" s="3">
         <v>349600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>264400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>441700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>344000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>239300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>209700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>338000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>348400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>253600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>230800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>474700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>479300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>314700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>209700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>336900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>225200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>256000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>222800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>331700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>233600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E10" s="3">
         <v>16000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>47400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>232600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>141800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>50300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>196100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>114800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>162600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>110300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>185000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>120500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-28900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>94100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>96400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1141,47 +1160,47 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>9600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-7900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>91300</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1195,76 +1214,82 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E15" s="3">
         <v>33100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>33000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>31800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>36800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>28000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>27400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>26500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>27000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>26900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>24900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>24600</v>
-      </c>
-      <c r="V15" s="3">
-        <v>24300</v>
       </c>
       <c r="W15" s="3">
         <v>24300</v>
       </c>
       <c r="X15" s="3">
+        <v>24300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>490600</v>
+      </c>
+      <c r="E17" s="3">
         <v>374600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>477500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>381000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>270000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>239800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>368400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>387300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>280200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>258100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>502700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>499600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>341100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>335900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>364100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>344800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>282400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>248900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>358100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>259600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>196800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>104800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>165800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>134600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>90000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-108600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>157800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-55300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>67700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>70400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
-      </c>
-      <c r="T20" s="3">
-        <v>2300</v>
       </c>
       <c r="U20" s="3">
         <v>2300</v>
       </c>
       <c r="V20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W20" s="3">
         <v>5700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>16400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>232200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>114000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>192400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>79800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>160800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>89900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-107400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>185300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-52600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>97700</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E22" s="3">
         <v>31500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>31200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>31500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>29600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>27800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>32500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>30200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>26500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>113300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>167400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>75500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>132100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-47300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>108500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-127100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>146700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-63600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>56600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>64900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-11700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>41800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-19500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-10900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-32000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-24800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-5500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>19300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>125700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>66500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>98700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>83500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>44300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-95100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>110200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-38800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>34700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>45700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-96700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>128700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>69200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>101100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>85700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-45600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-93800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>111300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-37500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>37700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>46000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,13 +2117,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="E29" s="3">
         <v>-100</v>
@@ -2102,20 +2162,20 @@
         <v>-100</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>13500</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2123,13 +2183,16 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-100</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-2300</v>
       </c>
       <c r="U32" s="3">
         <v>-2300</v>
       </c>
       <c r="V32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W32" s="3">
         <v>-5700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-96800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>128600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>69100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>101000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>85600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>45900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-93800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>111200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-37600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>37700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>45900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-96800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>128600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>69100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>101000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>85600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>45900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-93800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>111200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-37600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>37700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>45900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E41" s="3">
         <v>25400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>87900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>18300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>307800</v>
+      </c>
+      <c r="E43" s="3">
         <v>233600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>218800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>294500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>251000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>137400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>203700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>242100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>239200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>162000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>205600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>299700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>320600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>203800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>185500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>232600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>193300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>140400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>171700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>224000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>213500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E44" s="3">
         <v>66400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>41600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>42000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>52700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>41600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>32200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>55300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>66200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>51200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>88900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>48300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>37700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>52800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>62100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>54500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>42100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>60600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>241600</v>
+      </c>
+      <c r="E45" s="3">
         <v>246300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>178800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>143500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>179800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>154700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>170200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>177600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>351600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>172300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>160000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>182300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>250400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>441200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2168300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>137000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>185100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>107300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>120200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>155400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>180900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E46" s="3">
         <v>571700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>527000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>488900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>506800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>354800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>422800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>462300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>652500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>405100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>429000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>520700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>663200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>737300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2424500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>413500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>439000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>323500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>356500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>436600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>473300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E47" s="3">
         <v>138300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>117000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>187700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>178800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>143500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>138700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>136100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>130800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>128200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>124400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>121300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>117400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>116100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>113700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>107900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>104300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>115000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>111500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>100000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>96500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4929100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4741400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4633700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4525000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4466200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4319100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4174000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4153200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4073500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4028900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3941600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3726100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3653500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3530100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2361300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2731700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2700200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2698100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2707800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2662700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2623800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2547100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>721000</v>
+      </c>
+      <c r="E49" s="3">
         <v>721700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>723100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>722700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>724200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>721300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>713300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>714600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>702100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>705700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>703900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>734600</v>
       </c>
       <c r="O49" s="3">
         <v>734600</v>
       </c>
       <c r="P49" s="3">
+        <v>734600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>759800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>16100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>19800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>20700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>871500</v>
+      </c>
+      <c r="E52" s="3">
         <v>851000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>832300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>790200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>813200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>770100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>768200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>828300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>806400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>862100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>829400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>760700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>787900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>771200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>594300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>621100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>605500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>583600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>546000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>527600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>516300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>519800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7308700</v>
+      </c>
+      <c r="E54" s="3">
         <v>7024000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6833100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6714500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6689100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6308900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6217000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6294500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6365300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6130100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6028300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5863400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5956600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5914500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5509500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3890100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3865100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3740100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3741900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3747400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3730600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3557100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>330200</v>
+      </c>
+      <c r="E57" s="3">
         <v>301000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>226100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>218100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>256600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>162800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>160400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>187600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>232200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>245800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>288900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>332900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>410500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>383500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>262100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>259700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>284900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>208000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>246700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>272700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>243700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400100</v>
+      </c>
+      <c r="E58" s="3">
         <v>208600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>115700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>314100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>739200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>739800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>570700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1167700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1316600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1151200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1158900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>689000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1004400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1904100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1705200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>511900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>410200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>291000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>312200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>237000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>528000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>462100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E59" s="3">
         <v>309200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>247800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>220500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>167800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>201100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>195100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>210300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>183000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>210700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>198300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>183100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>166000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>183600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>147500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>152600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>188000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>185100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>175200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>171300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>180900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>955700</v>
+      </c>
+      <c r="E60" s="3">
         <v>818800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>589600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>752700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1163600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1103700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>926200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1565700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1731900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1607800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1646100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1205100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1580800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2471200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2114800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>924200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>883100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>684200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>734100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>681000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>952600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>812400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3189000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3195900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3177400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3063400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2776400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2531600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2566400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2067100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2070100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2022800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1798600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2117900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2106900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1281000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1403800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>974700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1123000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1180300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1066700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1079300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>808000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>808700</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1164500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1173300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1171300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1155200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1082200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1041600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1058000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1164400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1139600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1082700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1107200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1025900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1001900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>927500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>687200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>709700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>666600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>654200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>661800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>679100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>680700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>668600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5319500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5195400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4945700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4977400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5028300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4681200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4550600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4797200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4941600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4713300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4551800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4348800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4689600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4679700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4205800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2608600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2672700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2518700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2462600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2439500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2441300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2289700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>310400</v>
+      </c>
+      <c r="E72" s="3">
         <v>262800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>323000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>453800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>355700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>317000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>357100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>387000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>313200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>301000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>362400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>402300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>343300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>321900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>391500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>509300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>420400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>438600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>497900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>527100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>510600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>486300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1989200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1828600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1887400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1737100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1660900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1627700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1666300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1497300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1423800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1416800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1476500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1514600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1267000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1234800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1303700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1281500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1192400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1221400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1279200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1307900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1289200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1267400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-96800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>128600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>69100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>101000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>85600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>45900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-93800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>111200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-37600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>37700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>45900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>32300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>198500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>57400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>47900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>40400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>165900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-94700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>212300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-29800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>57600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>95200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>63200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>44100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>79500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>66200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-158500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-141400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-126800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-105400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-141600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-110200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-121000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-113700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-146400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-101300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-134700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-121900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-140400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-74800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-67200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-58800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-67400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-63600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-74800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-67300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-179600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-139100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-211300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-164900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-157000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-112300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-210400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-162200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-125100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-150200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-105200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-113500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-108800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>171800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1828700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-70300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-61500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-57800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-66500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-90200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-72800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-66100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-64000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-34000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-60100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-27300</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-53800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-26600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-48500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-44000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-21700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-42600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>216100</v>
+      </c>
+      <c r="E100" s="3">
         <v>70100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>169900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-96100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>184500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>106000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>71300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-152200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>158000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>189600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>122800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-117100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-123600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>48000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1763100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-50300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>70400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>40100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-20800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>11600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-62500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>56100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>31500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1760100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1750400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>20400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-14000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>SJI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>511400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>824600</v>
+      </c>
+      <c r="F8" s="3">
         <v>640200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>365600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>311800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>674300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>485800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>261500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>260000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>534100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>463200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>261200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>266900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>637300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>589600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>302500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>227300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>521900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>345700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>227100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>244400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>425800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>330000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>219100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>484200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>587200</v>
+      </c>
+      <c r="F9" s="3">
         <v>454000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>349600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>264400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>441700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>344000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>239300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>209700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>338000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>348400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>253600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>230800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>474700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>479300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>314700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>209700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>336900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>225200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>256000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>222800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>331700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>233600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>237400</v>
+      </c>
+      <c r="F10" s="3">
         <v>186200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>16000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>47400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>232600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>141800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>22200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>50300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>196100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>114800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>7600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>36100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>162600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>110300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-12200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>17600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>185000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>120500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-28900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>21600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>94100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>96400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,67 +1180,73 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-2600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>9600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>100100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>91300</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1217,79 +1257,91 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F15" s="3">
         <v>33900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>33100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>33000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>31800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>36800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>28000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>27400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>26500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>27000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>24900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>24100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>23700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>24900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>22400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>24800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>24700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>26900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>24900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>24600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>24300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>24300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>523600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>626000</v>
+      </c>
+      <c r="F17" s="3">
         <v>490600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>374600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>477500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>381000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>270000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>239800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>368400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>387300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>280200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>258100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>502700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>499600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>341100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>335900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>364100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>344800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>282400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>248900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>358100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>259600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>198600</v>
+      </c>
+      <c r="F18" s="3">
         <v>149600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>11600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>196800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>104800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>20200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>165800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>75900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-19000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>134600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>90000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-38600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-108600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>157800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-55300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-4500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>67700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>70400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1547,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>5700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>236700</v>
+      </c>
+      <c r="F21" s="3">
         <v>147100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>16400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>232200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>114000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>24800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>192400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>79800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-17600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>160800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>89900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-39600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-107400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>185300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>3800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-52600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>97700</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>31600</v>
+      </c>
+      <c r="F22" s="3">
         <v>33000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>31500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>31200</v>
       </c>
       <c r="G22" s="3">
         <v>31500</v>
       </c>
       <c r="H22" s="3">
+        <v>31200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>31500</v>
+      </c>
+      <c r="J22" s="3">
         <v>29600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>27800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>28600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>32500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>28500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>28900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>28400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>28700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>30200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>26500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>19600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>14000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>15700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>10600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>11000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>16700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>6700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>169600</v>
+      </c>
+      <c r="F23" s="3">
         <v>113300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-38200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-16000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>167400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>75500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-31100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>132100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>49300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-47300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-19500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>108500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>57000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-63700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-127100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>146700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-13900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-63600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-13200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>56600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>64900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F24" s="3">
         <v>21800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-11700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>41800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>8900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-19500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>33400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>11700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-10900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-4600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>24900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>12800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-16600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-32000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>36400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-24800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-5500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>21900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>19300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>129000</v>
+      </c>
+      <c r="F26" s="3">
         <v>91600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-26500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>125700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>66500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-11600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>98700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>37600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-36300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-14900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>83500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>44300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-47100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-95100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>110200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-10900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-38800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-7700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>34700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>45700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>129300</v>
+      </c>
+      <c r="F27" s="3">
         <v>82100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-26000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-96700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>128700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>69200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>101100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>39500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-34700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-13300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>85700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>46000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-45600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-93800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>111300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-9500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-37500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-7600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>37700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>46000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,19 +2236,25 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="E29" s="3">
         <v>-100</v>
       </c>
       <c r="F29" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="G29" s="3">
         <v>-100</v>
@@ -2165,34 +2287,40 @@
         <v>-100</v>
       </c>
       <c r="Q29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>13500</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-100</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-5700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>129200</v>
+      </c>
+      <c r="F33" s="3">
         <v>82500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-26100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-96800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>128600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>69100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-10400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>101000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>39500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-34800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-13400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>85600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>45900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-45700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-93800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>111200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-37600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-7700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>37700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>45900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>129200</v>
+      </c>
+      <c r="F35" s="3">
         <v>82500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-26100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-96800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>128600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>69100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-10400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>101000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>39500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-34800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-13400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>85600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>45900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-45700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-93800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>111200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-37600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-7700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>37700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>45900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F41" s="3">
         <v>28800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>25400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>87900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>30400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>34000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>30000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>22400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>6300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>7800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>13700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>10100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>15000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>18300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +3069,553 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>332500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>363300</v>
+      </c>
+      <c r="F43" s="3">
         <v>307800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>233600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>218800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>294500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>251000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>137400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>203700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>242100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>239200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>162000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>205600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>299700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>320600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>203800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>185500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>232600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>193300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>140400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>171700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>224000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>213500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F44" s="3">
         <v>60800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>66400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>41600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>20500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>42000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>52700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>41600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>32200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>55300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>66200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>51200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>28400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>62200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>88900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>48300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>37700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>52800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>62100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>54500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>42100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>60600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>260800</v>
+      </c>
+      <c r="F45" s="3">
         <v>241600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>246300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>178800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>143500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>179800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>154700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>170200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>177600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>351600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>172300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>160000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>182300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>250400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>441200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2168300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>137000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>185100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>107300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>120200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>155400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>180900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>708600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>677400</v>
+      </c>
+      <c r="F46" s="3">
         <v>639000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>571700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>527000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>488900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>506800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>354800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>422800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>462300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>652500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>405100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>429000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>520700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>663200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>737300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2424500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>413500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>439000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>323500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>356500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>436600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>473300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>180100</v>
+      </c>
+      <c r="F47" s="3">
         <v>148100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>138300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>117000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>187700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>178800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>143500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>138700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>136100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>130800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>128200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>124400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>121300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>117400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>116100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>113700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>107900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>104300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>115000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>111500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>100000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>96500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5113600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5003000</v>
+      </c>
+      <c r="F48" s="3">
         <v>4929100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4741400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4633700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4525000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4466200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4319100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4174000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4153200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4073500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4028900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3941600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3726100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3653500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3530100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2361300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2731700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2700200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2698100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2707800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2662700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2623800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2547100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>707000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>707000</v>
+      </c>
+      <c r="F49" s="3">
         <v>721000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>721700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>723100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>722700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>724200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>721300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>713300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>714600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>702100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>705700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>703900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>734600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>734600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>759800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>15600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>15800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>16100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>19800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>20100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>20400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>20700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>916800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>889400</v>
+      </c>
+      <c r="F52" s="3">
         <v>871500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>851000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>832300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>790200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>813200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>770100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>768200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>828300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>806400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>862100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>829400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>760700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>787900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>771200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>594300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>621100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>605500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>583600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>546000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>527600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>516300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>519800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7660600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7456800</v>
+      </c>
+      <c r="F54" s="3">
         <v>7308700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7024000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6833100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6714500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6689100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6308900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6217000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6294500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6365300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6130100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6028300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5863400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5956600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5914500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5509500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3890100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3865100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3740100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3741900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3747400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3730600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3557100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +4055,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>358600</v>
+      </c>
+      <c r="F57" s="3">
         <v>330200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>301000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>226100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>218100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>256600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>162800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>160400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>187600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>232200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>245800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>288900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>332900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>410500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>383500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>262100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>259700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>284900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>208000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>246700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>272700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>243700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>156800</v>
+      </c>
+      <c r="F58" s="3">
         <v>400100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>208600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>115700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>314100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>739200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>739800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>570700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1167700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1316600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1151200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1158900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>689000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1004400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1904100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1705200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>511900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>410200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>291000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>312200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>237000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>528000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>462100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>324400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>293400</v>
+      </c>
+      <c r="F59" s="3">
         <v>225400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>309200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>247800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>220500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>167800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>201100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>195100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>210300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>183000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>210700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>198300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>183100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>166000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>183600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>147500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>152600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>188000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>185100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>175200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>171300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>180900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1119400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>808800</v>
+      </c>
+      <c r="F60" s="3">
         <v>955700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>818800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>589600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>752700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1163600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1103700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>926200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1565700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1731900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1607800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1646100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1205100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1580800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2471200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2114800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>924200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>883100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>684200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>734100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>681000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>952600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>812400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3178000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3187600</v>
+      </c>
+      <c r="F61" s="3">
         <v>3189000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3195900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3177400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3063400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2776400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2531600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2566400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2067100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2070100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2022800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1798600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2117900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2106900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1281000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1403800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>974700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1123000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1180300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1066700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1079300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>808000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>808700</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1225900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1267500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1164500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1173300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1171300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1155200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1082200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1041600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1058000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1164400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1139600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1082700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1107200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1025900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1001900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>927500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>687200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>709700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>666600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>654200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>661800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>679100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>680700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>668600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5533700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5274200</v>
+      </c>
+      <c r="F66" s="3">
         <v>5319500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5195400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4945700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4977400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5028300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4681200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4550600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4797200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4941600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4713300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4551800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4348800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4689600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4679700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4205800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2608600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2672700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2518700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2462600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2439500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2441300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2289700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>346400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>403200</v>
+      </c>
+      <c r="F72" s="3">
         <v>310400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>262800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>323000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>453800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>355700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>317000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>357100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>387000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>313200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>301000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>362400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>402300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>343300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>321900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>391500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>509300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>420400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>438600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>497900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>527100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>510600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>486300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2126900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2182600</v>
+      </c>
+      <c r="F76" s="3">
         <v>1989200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1828600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1887400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1737100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1660900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1627700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1666300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1497300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1423800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1416800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1476500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1514600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1267000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1234800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1303700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1281500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1192400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1221400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1279200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1307900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1289200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1267400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>129200</v>
+      </c>
+      <c r="F81" s="3">
         <v>82500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-26100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-96800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>128600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>69100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-10400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>101000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>39500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-34800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-13400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>85600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>45900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-45700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-93800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>111200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-37600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-7700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>37700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>45900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>307000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>32300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>43200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>198500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>57400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>47900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>40400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>165900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-94700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>212300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>20600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>57600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>95200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>63200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>44100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>79500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>66200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-139300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-121500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-158500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-141400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-126800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-105400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-141600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-110200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-121000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-113700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-146400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-101300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-134700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-121900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-140400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-74800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-67200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-58800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-67400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-63600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-74800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-67300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-179600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-139100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-154600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-158300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-211300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-164900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-157000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-112300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-210400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-162200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-125100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-10100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-150200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-105200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-113500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-108800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>171800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1828700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-70300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-61500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-57800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-66500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-90200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-72800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-66100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-64000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6717,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-68900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-34000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-60100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-27300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-53800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-26600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-48500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-23900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-44000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-21700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-42600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>161100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-145500</v>
+      </c>
+      <c r="F100" s="3">
         <v>216100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>70100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>169900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-96100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>184500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>106000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>71300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-152200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>158000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>189600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>122800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-117100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-123600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>48000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1763100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-50300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>15000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>70400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>40100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-20800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>11600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F102" s="3">
         <v>4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-62500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>56100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-10000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>31500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-8400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-13400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>7500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-10300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>13200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-13700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>18400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1760100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1750400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-16700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>20400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>7400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-5900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-14000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>11300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>SJI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>608500</v>
+      </c>
+      <c r="E8" s="3">
         <v>511400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>824600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>640200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>365600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>311800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>674300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>485800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>261500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>260000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>534100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>463200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>261200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>266900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>637300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>589600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>302500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>227300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>521900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>345700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>227100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>244400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>425800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>330000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>219100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>556800</v>
+      </c>
+      <c r="E9" s="3">
         <v>484200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>587200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>454000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>349600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>264400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>441700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>344000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>239300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>209700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>338000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>348400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>253600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>230800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>474700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>479300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>314700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>209700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>336900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>225200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>256000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>222800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>331700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>233600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E10" s="3">
         <v>27200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>237400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>186200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>47400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>232600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>141800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>196100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>114800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>162600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>110300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-12200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>185000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>120500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-28900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>21600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>94100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>96400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,22 +1203,25 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1209,47 +1229,47 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>9600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-7900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>91300</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1263,85 +1283,91 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E15" s="3">
         <v>34200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>34000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>33900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>33100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>31800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>36800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>28000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>27400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>26500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>27000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>24800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>24700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>26900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>24900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>24600</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>24300</v>
       </c>
       <c r="Z15" s="3">
         <v>24300</v>
       </c>
       <c r="AA15" s="3">
+        <v>24300</v>
+      </c>
+      <c r="AB15" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>604300</v>
+      </c>
+      <c r="E17" s="3">
         <v>523600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>626000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>490600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>374600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>477500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>381000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>270000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>239800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>368400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>387300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>280200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>258100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>502700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>499600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>341100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>335900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>364100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>344800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>282400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>248900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>358100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>259600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>198600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>149600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>196800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>104800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>165800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>75900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>134600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>90000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-38600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-108600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>157800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-55300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>67700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>70400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
-      </c>
-      <c r="W20" s="3">
-        <v>2300</v>
       </c>
       <c r="X20" s="3">
         <v>2300</v>
       </c>
       <c r="Y20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Z20" s="3">
         <v>5700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>236700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>147100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>232200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>114000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>192400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>79800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>160800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>89900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-39600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-107400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>185300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-52600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>97700</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31600</v>
+        <v>38500</v>
       </c>
       <c r="E22" s="3">
         <v>31600</v>
       </c>
       <c r="F22" s="3">
+        <v>31600</v>
+      </c>
+      <c r="G22" s="3">
         <v>33000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>31500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>31200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>29600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>28400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>28700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>30200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>26500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>19600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>16700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>6700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-40800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>169600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>113300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-38200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>167400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>75500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>132100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>49300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-47300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>108500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>57000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-63700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-127100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>146700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-13900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-63600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-13200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>56600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>64900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-22100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-11700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>41800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-19500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-10900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-16600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-32000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-24800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>19300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>129000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>91600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>125700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>66500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>98700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>37600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-36300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>83500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>44300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-47100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-95100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>110200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-38800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>34700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>45700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>129300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>82100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-96700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>128700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>69200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>101100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-34700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>85700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-45600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-93800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>111300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-37500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>37700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>46000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,22 +2300,25 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>300</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-100</v>
       </c>
       <c r="H29" s="3">
         <v>-100</v>
@@ -2293,20 +2354,20 @@
         <v>-100</v>
       </c>
       <c r="S29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>13500</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2314,13 +2375,16 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-100</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-2300</v>
       </c>
       <c r="X32" s="3">
         <v>-2300</v>
       </c>
       <c r="Y32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>129200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>82500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-96800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>128600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>69100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>101000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-34800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>85600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>45900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-45700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-93800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>111200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-37600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>37700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>45900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>129200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>82500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-96800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>128600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>69100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>101000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-34800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>85600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>45900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-45700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-93800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>111200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-37600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>37700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>45900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E41" s="3">
         <v>53500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>87900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>15000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>18300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,470 +3165,491 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>313600</v>
+      </c>
+      <c r="E43" s="3">
         <v>332500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>363300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>307800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>233600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>218800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>294500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>251000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>137400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>203700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>242100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>239200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>162000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>205600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>299700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>320600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>203800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>185500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>232600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>193300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>140400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>171700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>224000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>213500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E44" s="3">
         <v>71200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>60800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>66400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>41600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>42000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>52700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>41600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>32200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>55300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>66200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>51200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>28400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>62200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>88900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>48300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>37700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>52800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>62100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>54500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>42100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>60600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>277100</v>
+      </c>
+      <c r="E45" s="3">
         <v>251400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>260800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>241600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>246300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>178800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>143500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>179800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>154700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>170200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>177600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>351600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>172300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>160000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>182300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>250400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>441200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2168300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>137000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>185100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>107300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>120200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>155400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>180900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>764400</v>
+      </c>
+      <c r="E46" s="3">
         <v>708600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>677400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>639000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>571700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>527000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>488900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>506800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>354800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>422800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>462300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>652500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>405100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>429000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>520700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>663200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>737300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2424500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>413500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>439000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>323500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>356500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>436600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>473300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>251800</v>
+      </c>
+      <c r="E47" s="3">
         <v>214700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>180100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>148100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>138300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>117000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>187700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>178800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>143500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>138700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>136100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>130800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>128200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>124400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>121300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>117400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>116100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>113700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>107900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>104300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>115000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>111500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>100000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>96500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5298300</v>
+      </c>
+      <c r="E48" s="3">
         <v>5113600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5003000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4929100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4741400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4633700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4525000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4466200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4319100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4174000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4153200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4073500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4028900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3941600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3726100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3653500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3530100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2361300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2731700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2700200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2698100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2707800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2662700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2623800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2547100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3549,73 +3660,76 @@
         <v>707000</v>
       </c>
       <c r="F49" s="3">
+        <v>707000</v>
+      </c>
+      <c r="G49" s="3">
         <v>721000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>721700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>723100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>722700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>724200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>721300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>713300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>714600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>702100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>705700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>703900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>734600</v>
       </c>
       <c r="R49" s="3">
         <v>734600</v>
       </c>
       <c r="S49" s="3">
+        <v>734600</v>
+      </c>
+      <c r="T49" s="3">
         <v>759800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>15800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>16100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>19800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>20100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>20400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>20700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>896500</v>
+      </c>
+      <c r="E52" s="3">
         <v>916800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>889400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>871500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>851000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>832300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>790200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>813200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>770100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>768200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>828300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>806400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>862100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>829400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>760700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>787900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>771200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>594300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>621100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>605500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>583600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>546000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>527600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>516300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>519800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7917900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7660600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7456800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7308700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7024000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6833100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6714500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6689100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6308900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6217000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6294500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6365300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6130100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6028300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5863400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5956600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5914500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5509500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3890100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3865100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3740100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3741900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3747400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3730600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3557100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>483100</v>
+      </c>
+      <c r="E57" s="3">
         <v>430000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>358600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>330200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>301000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>226100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>218100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>256600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>162800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>160400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>187600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>232200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>245800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>288900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>332900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>410500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>383500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>262100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>259700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>284900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>208000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>246700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>272700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>243700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>234300</v>
+      </c>
+      <c r="E58" s="3">
         <v>365000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>156800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>208600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>115700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>314100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>739200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>739800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>570700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1167700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1316600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1151200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1158900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>689000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1004400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1904100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1705200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>511900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>410200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>291000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>312200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>237000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>528000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>462100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>369200</v>
+      </c>
+      <c r="E59" s="3">
         <v>324400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>293400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>225400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>309200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>247800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>220500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>167800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>201100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>195100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>210300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>183000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>210700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>198300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>183100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>166000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>183600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>147500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>152600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>188000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>185100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>175200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>171300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>180900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1086600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1119400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>808800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>955700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>818800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>589600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>752700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1163600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1103700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>926200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1565700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1731900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1607800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1646100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1205100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1580800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2471200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2114800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>924200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>883100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>684200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>734100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>681000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>952600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>812400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3566800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3178000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3187600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3189000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3195900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3177400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3063400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2776400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2531600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2566400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2067100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2070100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2022800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1798600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2117900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2106900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1281000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1403800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>974700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1123000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1180300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1066700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1079300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>808000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>808700</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1225900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1267500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1164500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1173300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1171300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1155200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1082200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1041600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1058000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1164400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1139600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1082700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1107200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1025900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1001900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>927500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>687200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>709700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>666600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>654200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>661800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>679100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>680700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>668600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5865800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5533700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5274200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5319500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5195400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4945700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4977400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5028300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4681200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4550600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4797200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4941600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4713300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4551800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4348800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4689600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4679700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4205800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2608600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2672700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2518700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2462600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2439500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2441300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2289700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>270400</v>
+      </c>
+      <c r="E72" s="3">
         <v>346400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>403200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>310400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>262800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>323000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>453800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>355700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>317000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>357100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>387000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>313200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>301000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>362400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>402300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>343300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>321900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>391500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>509300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>420400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>438600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>497900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>527100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>510600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>486300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2052200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2126900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2182600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1989200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1828600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1887400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1737100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1660900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1627700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1666300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1497300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1423800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1416800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1476500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1514600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1267000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1234800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1303700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1281500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1192400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1221400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1279200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1307900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1289200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1267400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>129200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>82500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-96800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>128600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>69100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>101000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-34800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>85600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>45900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-45700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-93800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>111200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-37600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>37700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>45900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E89" s="3">
         <v>16600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>307000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>198500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>57400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>47900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>165900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-94700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>212300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-29800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>20600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>57600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>95200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>63200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>44100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>79500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>66200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-202200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-139300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-121500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-158500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-141400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-126800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-105400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-141600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-110200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-121000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-113700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-146400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-101300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-134700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-121900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-140400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-74800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-67200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-58800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-67400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-63600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-74800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-67300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-179600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-139100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-273600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-154600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-158300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-211300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-164900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-157000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-112300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-210400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-162200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-125100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-150200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-105200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-113500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-108800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>171800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1828700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-70300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-61500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-57800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-66500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-90200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-72800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-66100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-64000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-38000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-68900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-34000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-60100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-27300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-53800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-26600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-48500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-44000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-21700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-42600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>220100</v>
+      </c>
+      <c r="E100" s="3">
         <v>161100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-145500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>216100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>70100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>169900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-96100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>184500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>106000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>71300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-152200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>158000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>189600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>122800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-117100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-123600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>48000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1763100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-50300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>15000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>70400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>40100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-20800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>11600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>23100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-62500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>56100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>31500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1760100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1750400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-16700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>20400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>11300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2800</v>
       </c>
     </row>
